--- a/biology/Médecine/Pierre_Lanzenberg/Pierre_Lanzenberg.xlsx
+++ b/biology/Médecine/Pierre_Lanzenberg/Pierre_Lanzenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Salomon Lanzenberg (3 janvier 1900, Colmar - 30 mars 1943, Sobibór, Pologne) est un médecin dermatologue français, membre de la Résistance, arrêté lors de la Rafle de la rue Sainte-Catherine à Lyon, par la Gestapo, sous les ordres de Klaus Barbie. Il est déporté et assassiné au Camp d'extermination de Sobibor, en mars 1943.
 </t>
@@ -511,18 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Salomon Lanzenberg naît le 3 janvier 1900 à Colmar, Haut-Rhin[1]. Il est le fils d'Albert Jean Lanzenberg et de Alma (Aline) Henriette Gensburger. Il a une sœur, Lucie Sarah Wolff. 
-Il est élève au lycée Bartholdi de 1906 à 1918. Élève de Lucien-Marie Pautrier fondateur de l'école de dermatologie de Strasbourg, qui dirige sa thèse (Contribution à l'étude du diagnostic des adénopathies inguinales, Éditions universitaires de Strasbourg, 1928)[2], il devient médecin. En 1940, il est chef de clinique dermatologique à Strasbourg[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Salomon Lanzenberg naît le 3 janvier 1900 à Colmar, Haut-Rhin. Il est le fils d'Albert Jean Lanzenberg et de Alma (Aline) Henriette Gensburger. Il a une sœur, Lucie Sarah Wolff. 
+Il est élève au lycée Bartholdi de 1906 à 1918. Élève de Lucien-Marie Pautrier fondateur de l'école de dermatologie de Strasbourg, qui dirige sa thèse (Contribution à l'étude du diagnostic des adénopathies inguinales, Éditions universitaires de Strasbourg, 1928), il devient médecin. En 1940, il est chef de clinique dermatologique à Strasbourg.
 Il est expulsé après les décrets anti-juifs à Clairvivre, en Dordogne.
 Il se réfugie à Montpellier puis à Lyon, où il accepte un poste à l'OSE.
-En 1942, il devient gérant de la Maison des médecins de l'UGIF à Bron[4] près de Lyon.
-La rafle de la rue Sainte-Catherine
-Pierre Lanzenberg, médecin au centre médico-social de Lyon, de l'UGIF, rue Sainte-Catherine, est arrêté le 7 février 1943[5] avec son assistante Marcelle Loeb, (dite "Topy"), âgée de 17 ans[6],[7], lors de la rafle de la rue Sainte-Catherine à Lyon. L'équipe de Pierre Lanzenberg continue toutefois à travailler jusqu'à la  Libération à Lyon et à Grenoble[8].
-Déportation
-Il est transféré au Camp de Drancy puis le 9 mars 1943, au camp de transit de Beaune-la-Rolande. Le 23 mars 1943, il est renvoyé à Drancy.
-Pierre Lanzenberg et Marcelle Loeb sont déportés dans le convoi n° 53 du 25 mars 1943 qui part du camp de Drancy et arrive au camp d'extermination de Sobibor[9]. Ils y sont assassinés le 30 mars 1943.
+En 1942, il devient gérant de la Maison des médecins de l'UGIF à Bron près de Lyon.
 </t>
         </is>
       </c>
@@ -548,10 +557,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La rafle de la rue Sainte-Catherine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Lanzenberg, médecin au centre médico-social de Lyon, de l'UGIF, rue Sainte-Catherine, est arrêté le 7 février 1943 avec son assistante Marcelle Loeb, (dite "Topy"), âgée de 17 ans lors de la rafle de la rue Sainte-Catherine à Lyon. L'équipe de Pierre Lanzenberg continue toutefois à travailler jusqu'à la  Libération à Lyon et à Grenoble.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Lanzenberg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lanzenberg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Déportation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est transféré au Camp de Drancy puis le 9 mars 1943, au camp de transit de Beaune-la-Rolande. Le 23 mars 1943, il est renvoyé à Drancy.
+Pierre Lanzenberg et Marcelle Loeb sont déportés dans le convoi n° 53 du 25 mars 1943 qui part du camp de Drancy et arrive au camp d'extermination de Sobibor. Ils y sont assassinés le 30 mars 1943.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Lanzenberg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Lanzenberg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Seul ou en collaboration, Pierre Lanzenberg est l'auteur de plusieurs articles ou communications de dermatologie. 
 P Lanzenberg, « Erythème polymorphe à poussée récidivante », Annales de dermatologie et de syphiligraphie, vol. 8,‎ 1927
